--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +17,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>Алгоритм Шелла</t>
+  </si>
+  <si>
+    <t>Размер массива</t>
+  </si>
+  <si>
+    <t>Среднее значение</t>
+  </si>
+  <si>
+    <t>Полиномиальная зависимость</t>
+  </si>
+  <si>
+    <t>O(n^3)</t>
+  </si>
+  <si>
+    <t>Сортировка Пузырьком</t>
+  </si>
+  <si>
+    <t>Пузерёк</t>
+  </si>
+  <si>
+    <t>Шелла</t>
+  </si>
+  <si>
+    <t>Сортировка Вставкой</t>
+  </si>
+  <si>
+    <t>Вставки</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +81,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,10 +169,1146 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Алгоритмы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1354.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73DF-4E82-A559-F042E81CAE33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ряд2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48970.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73DF-4E82-A559-F042E81CAE33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ряд3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.29184361329833769"/>
+                  <c:y val="-0.11101305045202683"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19069.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73DF-4E82-A559-F042E81CAE33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="407633872"/>
+        <c:axId val="407635840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="407633872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407635840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407635840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407633872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +1346,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +1386,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +1418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +1568,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f>AVERAGE(B3:K3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L7" si="0">AVERAGE(B4:K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5">
+        <v>54</v>
+      </c>
+      <c r="H6" s="5">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5">
+        <v>50</v>
+      </c>
+      <c r="J6" s="5">
+        <v>53</v>
+      </c>
+      <c r="K6" s="5">
+        <v>57</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1114</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1402</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1390</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1270</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1313</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1393</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1433</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1421</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1400</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1409</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>1354.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <f>AVERAGE(B11:K11)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" ref="L12:L15" si="1">AVERAGE(B12:K12)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B13" s="5">
+        <v>899</v>
+      </c>
+      <c r="C13" s="5">
+        <v>960</v>
+      </c>
+      <c r="D13" s="5">
+        <v>734</v>
+      </c>
+      <c r="E13" s="5">
+        <v>839</v>
+      </c>
+      <c r="F13" s="5">
+        <v>822</v>
+      </c>
+      <c r="G13" s="5">
+        <v>793</v>
+      </c>
+      <c r="H13" s="5">
+        <v>821</v>
+      </c>
+      <c r="I13" s="5">
+        <v>950</v>
+      </c>
+      <c r="J13" s="5">
+        <v>669</v>
+      </c>
+      <c r="K13" s="5">
+        <v>903</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B14" s="5">
+        <v>49401</v>
+      </c>
+      <c r="C14" s="5">
+        <v>48650</v>
+      </c>
+      <c r="D14" s="5">
+        <v>48866</v>
+      </c>
+      <c r="E14" s="5">
+        <v>48885</v>
+      </c>
+      <c r="F14" s="5">
+        <v>49049</v>
+      </c>
+      <c r="G14" s="5">
+        <v>48856</v>
+      </c>
+      <c r="H14" s="5">
+        <v>49430</v>
+      </c>
+      <c r="I14" s="5">
+        <v>49270</v>
+      </c>
+      <c r="J14" s="5">
+        <v>48738</v>
+      </c>
+      <c r="K14" s="5">
+        <v>48560</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>48970.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>6</v>
+      </c>
+      <c r="H18" s="5">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5">
+        <v>10</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>100</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <f>AVERAGE(B19:K19)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" ref="L20:L23" si="2">AVERAGE(B20:K20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B21" s="5">
+        <v>432</v>
+      </c>
+      <c r="C21" s="5">
+        <v>203</v>
+      </c>
+      <c r="D21" s="5">
+        <v>280</v>
+      </c>
+      <c r="E21" s="5">
+        <v>207</v>
+      </c>
+      <c r="F21" s="5">
+        <v>440</v>
+      </c>
+      <c r="G21" s="5">
+        <v>206</v>
+      </c>
+      <c r="H21" s="5">
+        <v>219</v>
+      </c>
+      <c r="I21" s="5">
+        <v>240</v>
+      </c>
+      <c r="J21" s="5">
+        <v>209</v>
+      </c>
+      <c r="K21" s="5">
+        <v>206</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="2"/>
+        <v>264.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B22" s="5">
+        <v>19337</v>
+      </c>
+      <c r="C22" s="5">
+        <v>19398</v>
+      </c>
+      <c r="D22" s="5">
+        <v>19163</v>
+      </c>
+      <c r="E22" s="5">
+        <v>19301</v>
+      </c>
+      <c r="F22" s="5">
+        <v>19640</v>
+      </c>
+      <c r="G22" s="5">
+        <v>18009</v>
+      </c>
+      <c r="H22" s="5">
+        <v>17380</v>
+      </c>
+      <c r="I22" s="5">
+        <v>19630</v>
+      </c>
+      <c r="J22" s="5">
+        <v>20105</v>
+      </c>
+      <c r="K22" s="5">
+        <v>18730</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="2"/>
+        <v>19069.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B17:K17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C5">
+        <v>839</v>
+      </c>
+      <c r="D5">
+        <v>264.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="C6">
+        <v>48970.5</v>
+      </c>
+      <c r="D6">
+        <v>19069.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1354.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>